--- a/biology/Mycologie/Cantharellacées/Cantharellacées.xlsx
+++ b/biology/Mycologie/Cantharellacées/Cantharellacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cantharellac%C3%A9es</t>
+          <t>Cantharellacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cantharellacées (Cantharellaceae) sont une famille de champignons de l'ordre des Cantharellales. Cette famille est constituée de cinq genres dont deux d'entre eux sont particulièrement connus : les Chanterelles (genre Cantharellus) et les Craterelles (genre Craterellus).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cantharellac%C3%A9es</t>
+          <t>Cantharellacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cantharellacées se caractérisent par leur forme en coupe à boire (grec Kantharos) et par un hyménium. Chez les chanterelles, l'hyménium se présente sous forme de simples plis, et chez les craterelles cette surface est quasiment lisse.
 Certains auteurs proposent un sous-genre, les Pseudocraterelles.
-Toutes les espèces européennes de la famille des Cantharellacées sont comestibles[1]. Trois autres genres proviennent d'Afrique équatoriale, de Bornéo et en Asie équatoriale[1].
+Toutes les espèces européennes de la famille des Cantharellacées sont comestibles. Trois autres genres proviennent d'Afrique équatoriale, de Bornéo et en Asie équatoriale.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cantharellac%C3%A9es</t>
+          <t>Cantharellacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cantharellaceae est élaborée en 1888 par le mycologue allemand Joseph Schröter pour y répertorier les chanterelles. Ces dernières sont alors perçues comme une transition évolutionnaire entre les « primitives » espèces du genre Thelephora qui présentent des hyménophores lisses (surfaces porteuses de spores) et le genre Agaricus, espèces avec hyménophores à lames[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cantharellaceae est élaborée en 1888 par le mycologue allemand Joseph Schröter pour y répertorier les chanterelles. Ces dernières sont alors perçues comme une transition évolutionnaire entre les « primitives » espèces du genre Thelephora qui présentent des hyménophores lisses (surfaces porteuses de spores) et le genre Agaricus, espèces avec hyménophores à lames.
 Fries répartit les Cantharellacées en deux genres, parfois considérées comme sous-genre : 
 Cantharellus, à hyménium tapissant des lamelles rudimentaires à arête obtuse, avec C. cibarius, friesii, C. infundibuliformis, C. tubaeformis, etc.
 Craterellus, à surface fertile costée ou veinée, avec C. lutescens, C. cornucopioides, C. sinuosus, C. crispus, etc.
-En 1903, le mycologue français René Maire propose un nouveau système de classification basé sur la présence de basides disposées longitudinalement, une caractéristique des Cantharellaceae qui les reliait à la famille Hydnaceae et à Clavulinaceae. Cela conduit Ernst Gäumann à inclure le genre Hydnum (les champignons à picots) dans les Cantharellaceae[3].
-Dans son enquête de 1964 sur les familles fongiques, le mycologue néerlandais Donk circonscrit les Cantharellaceae aux seules espèces des genres Cantharellus et Craterellus, avec quelques espèces tropicales associées proches. Cette analyse a été largement acceptée[4].
-La recherche moléculaire basée sur l'analyse cladistique de séquences d'ADN confirmela circonscription des Cantharellaceae de Donk, bien que des genres plus petits ne soient pas encore séquencés[5]. Selon un ouvrage de référence de 2008, la famille contient 5 genres et plus de 90 espèces à travers le monde[4].
-Modification de la taxonomie
-En 2002, une étude phylogénétique suggère de classer les variétés lutescens et tubaeformis dans le genre Craterellus[6].
+En 1903, le mycologue français René Maire propose un nouveau système de classification basé sur la présence de basides disposées longitudinalement, une caractéristique des Cantharellaceae qui les reliait à la famille Hydnaceae et à Clavulinaceae. Cela conduit Ernst Gäumann à inclure le genre Hydnum (les champignons à picots) dans les Cantharellaceae.
+Dans son enquête de 1964 sur les familles fongiques, le mycologue néerlandais Donk circonscrit les Cantharellaceae aux seules espèces des genres Cantharellus et Craterellus, avec quelques espèces tropicales associées proches. Cette analyse a été largement acceptée.
+La recherche moléculaire basée sur l'analyse cladistique de séquences d'ADN confirmela circonscription des Cantharellaceae de Donk, bien que des genres plus petits ne soient pas encore séquencés. Selon un ouvrage de référence de 2008, la famille contient 5 genres et plus de 90 espèces à travers le monde.
 </t>
         </is>
       </c>
@@ -565,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cantharellac%C3%A9es</t>
+          <t>Cantharellacées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,32 +594,355 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Modification de la taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, une étude phylogénétique suggère de classer les variétés lutescens et tubaeformis dans le genre Craterellus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres et description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nombre de genres varie selon les sources. Selon NCBI  (8 septembre 2023)[7], il n'y a que quatre genres (Cantharellus, Craterellus, Pterygellus et Neoburgoa. Cette famille est constituée des cinq genres et sous-genres suivants[4] dont deux genres, Cantharellus et  Craterullus sont encore en 2019 les deux genres les plus connus et importants[8]:
-Cantharellus ou Chanterelle
-Au moins 70 espèces de chanterelles ont été décrites et publiées[8]. On trouve en Europe une douzaine d'espèces dont deux méditerranéennes (Espagne) et quelques-unes spécifiques (Norvège). En Amérique du nord, on connait une douzaine d'espèces proches des espèces européennes, mais morphogénétiquement différentes, ainsi que quelques espèces originales sur la côte du Pacifique. En Amérique centrale, deux espèces et en Amérique du Sud une dizaine d'espèces sont connues. On trouve aussi des espèces spécifiques à la Nouvelle-Calédonie, à la Guyane anglaise et en Tanzanie ainsi que six espèces qui sont décrites en Nouvelle-Zélande. Enfin, on trouve une douzaine d'espèces en Afrique équatoriale. On trouve Cantharellus rufopunctatus et Cantharellus pseudofriesii en Afrique de l'Ouest et Cantharellus floridulus au Ghana[9]. Divers anciens taxons et synonymes ne sont plus utilisés.
-Craterellus ou Craterelle
-Il y a 70 espèces de ce genre[4], dont trois fort connues dans l'hémisphère nord : les trompettes de la mort et les chanterelles jaune et grise. Certaines[Lesquelles ?] sont plus spécifiques de certaines régions américaines comme la  région des Grands Lacs, les Montagnes rocheuses et la Caroline du Nord. La Craterelle dorée se trouve en Asie et dans le Pacifique, d'autres espèces[Lesquelles ?] se trouvent en Guyane.[réf. nécessaire] 
-Exemple
-Craterellus cornucopioides
-Pseudocraterellus ou Pseudo-craterelles
-Le genre Pseudocraterellus comporte une dizaine d'espèces, dont une[Laquelle ?] en Europe.[réf. nécessaire]
-Exemple
-Pseudocraterellus undulatus
-Goossensia
-Le genre contient une seule espèce découverte en République du Congo.[réf. nécessaire]
-Goossensia cibarioides (Heinemann 1958[10][réf. incomplète])
-Parastereopsis
-Le genre contient une espèce décrite en 1976 et découverte à Bornéo[11].
-Parastereopsis borneensis (E.J.H. Corner in 1976[12][réf. incomplète])
-Pterygellus
-Le genre Pterygellus présente cinq espèces décrites en 1966 et vivant en Asie tropicale[13] 
-Pterygellus armeniacus (E.J.H. Corner, 1966[14][réf. incomplète])
-Pterygellus cymatodermoides, (D.A. Reid, K.S. Thind &amp; Adlakha 1958[15][réf. incomplète])
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de genres varie selon les sources. Selon NCBI  (8 septembre 2023), il n'y a que quatre genres (Cantharellus, Craterellus, Pterygellus et Neoburgoa. Cette famille est constituée des cinq genres et sous-genres suivants dont deux genres, Cantharellus et  Craterullus sont encore en 2019 les deux genres les plus connus et importants:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cantharellus ou Chanterelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moins 70 espèces de chanterelles ont été décrites et publiées. On trouve en Europe une douzaine d'espèces dont deux méditerranéennes (Espagne) et quelques-unes spécifiques (Norvège). En Amérique du nord, on connait une douzaine d'espèces proches des espèces européennes, mais morphogénétiquement différentes, ainsi que quelques espèces originales sur la côte du Pacifique. En Amérique centrale, deux espèces et en Amérique du Sud une dizaine d'espèces sont connues. On trouve aussi des espèces spécifiques à la Nouvelle-Calédonie, à la Guyane anglaise et en Tanzanie ainsi que six espèces qui sont décrites en Nouvelle-Zélande. Enfin, on trouve une douzaine d'espèces en Afrique équatoriale. On trouve Cantharellus rufopunctatus et Cantharellus pseudofriesii en Afrique de l'Ouest et Cantharellus floridulus au Ghana. Divers anciens taxons et synonymes ne sont plus utilisés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Craterellus ou Craterelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a 70 espèces de ce genre, dont trois fort connues dans l'hémisphère nord : les trompettes de la mort et les chanterelles jaune et grise. Certaines[Lesquelles ?] sont plus spécifiques de certaines régions américaines comme la  région des Grands Lacs, les Montagnes rocheuses et la Caroline du Nord. La Craterelle dorée se trouve en Asie et dans le Pacifique, d'autres espèces[Lesquelles ?] se trouvent en Guyane.[réf. nécessaire] 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Craterellus ou Craterelle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Exemple</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Craterellus cornucopioides</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus ou Pseudo-craterelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pseudocraterellus comporte une dizaine d'espèces, dont une[Laquelle ?] en Europe.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus ou Pseudo-craterelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Exemple</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus undulatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Goossensia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le genre contient une seule espèce découverte en République du Congo.[réf. nécessaire]
+Goossensia cibarioides (Heinemann 1958[réf. incomplète])</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Parastereopsis</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le genre contient une espèce décrite en 1976 et découverte à Bornéo.
+Parastereopsis borneensis (E.J.H. Corner in 1976[réf. incomplète])</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cantharellacées</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des genres et description</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pterygellus</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le genre Pterygellus présente cinq espèces décrites en 1966 et vivant en Asie tropicale 
+Pterygellus armeniacus (E.J.H. Corner, 1966[réf. incomplète])
+Pterygellus cymatodermoides, (D.A. Reid, K.S. Thind &amp; Adlakha 1958[réf. incomplète])
 Pterygellus funalis
 Pterygellus polymorphus
 Pterygellus spiculosus</t>
